--- a/数据整理/stocks/A股/科创板/688518-联赢激光.xlsx
+++ b/数据整理/stocks/A股/科创板/688518-联赢激光.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688518-联赢激光.xlsx
+++ b/数据整理/stocks/A股/科创板/688518-联赢激光.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.18</v>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1675,13 +1718,2285 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>112.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6146</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3704</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9769</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5966</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5849</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4573</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3935</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688518-联赢激光.xlsx
+++ b/数据整理/stocks/A股/科创板/688518-联赢激光.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3927,7 +3928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3938,17 +3939,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3958,14 +3979,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.52</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3974,14 +4017,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.18</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8542</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3990,13 +4055,1237 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4595</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2659</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519967</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信利富债券</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013371</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银新能源智选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013372</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民生加银新能源智选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688518-联赢激光.xlsx
+++ b/数据整理/stocks/A股/科创板/688518-联赢激光.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5200,7 +5201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5211,17 +5212,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5231,14 +5252,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.39</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5247,14 +5290,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.52</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8554</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5263,14 +5328,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.18</v>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5279,13 +5366,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>53.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688518-联赢激光.xlsx
+++ b/数据整理/stocks/A股/科创板/688518-联赢激光.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>5.69</v>
+        <v>16.17</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>6.39</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>20.52</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>9.18</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -566,6 +583,3022 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8645</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4194</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9157</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7545</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3751</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴新经济混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001183</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002220</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方瑞利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009351</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方誉丰18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001504</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009352</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方誉丰18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>016920</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>016617</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1419,7 +4452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2691,7 +5724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4989,7 +8022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5881,7 +8914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688518-联赢激光.xlsx
+++ b/数据整理/stocks/A股/科创板/688518-联赢激光.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>16.17</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>5.69</v>
+        <v>16.17</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>6.39</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>20.52</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>9.18</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -583,6 +600,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9744</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8433</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科创板三年定开混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001420</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方大数据300指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>73.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001426</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方大数据300指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3598,7 +4925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4452,7 +5779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5724,7 +7051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8022,7 +9349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8914,7 +10241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
